--- a/������.xlsx
+++ b/������.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\program1\cchess_c\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9ED6848-A2AD-43AC-985B-40E83193976C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2ED04C8-4AE3-47B6-AC4E-80E0B58ABC08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3072" yWindow="3072" windowWidth="23040" windowHeight="12204" xr2:uid="{30C641A1-7BA4-450F-B651-BF1ABE7EFE81}"/>
+    <workbookView xWindow="3984" yWindow="3444" windowWidth="10920" windowHeight="12204" xr2:uid="{30C641A1-7BA4-450F-B651-BF1ABE7EFE81}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="175">
   <si>
     <t>A0</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -578,6 +578,42 @@
   </si>
   <si>
     <t>AF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -585,7 +621,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -598,6 +634,22 @@
       <sz val="9"/>
       <name val="等线"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -636,7 +688,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -650,6 +702,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -966,10 +1027,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A382D1F3-B03D-4C97-9C72-DAEB0611E831}">
-  <dimension ref="F7:U22"/>
+  <dimension ref="D7:U26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="V23" sqref="V23"/>
+      <selection activeCell="T25" sqref="T25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -977,7 +1038,7 @@
     <col min="1" max="21" width="3.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="6:21" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="4:21" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F7" s="3" t="s">
         <v>23</v>
       </c>
@@ -1027,7 +1088,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="8" spans="6:21" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="4:21" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F8" s="3" t="s">
         <v>22</v>
       </c>
@@ -1077,7 +1138,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="9" spans="6:21" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="4:21" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F9" s="3" t="s">
         <v>21</v>
       </c>
@@ -1127,7 +1188,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="10" spans="6:21" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="4:21" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F10" s="3" t="s">
         <v>20</v>
       </c>
@@ -1177,7 +1238,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="11" spans="6:21" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="4:21" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F11" s="3" t="s">
         <v>1</v>
       </c>
@@ -1227,7 +1288,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="12" spans="6:21" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="4:21" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F12" s="3" t="s">
         <v>0</v>
       </c>
@@ -1277,7 +1338,10 @@
         <v>165</v>
       </c>
     </row>
-    <row r="13" spans="6:21" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="4:21" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D13" s="6">
+        <v>9</v>
+      </c>
       <c r="F13" s="1">
         <v>90</v>
       </c>
@@ -1327,7 +1391,10 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="6:21" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="4:21" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D14" s="6">
+        <v>8</v>
+      </c>
       <c r="F14" s="1">
         <v>80</v>
       </c>
@@ -1377,7 +1444,10 @@
         <v>85</v>
       </c>
     </row>
-    <row r="15" spans="6:21" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="4:21" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D15" s="6">
+        <v>7</v>
+      </c>
       <c r="F15" s="1">
         <v>70</v>
       </c>
@@ -1427,7 +1497,10 @@
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="6:21" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="4:21" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D16" s="6">
+        <v>6</v>
+      </c>
       <c r="F16" s="1">
         <v>60</v>
       </c>
@@ -1477,7 +1550,10 @@
         <v>95</v>
       </c>
     </row>
-    <row r="17" spans="6:21" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:21" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D17" s="6">
+        <v>5</v>
+      </c>
       <c r="F17" s="1">
         <v>50</v>
       </c>
@@ -1527,7 +1603,10 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="6:21" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:21" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D18" s="6">
+        <v>4</v>
+      </c>
       <c r="F18" s="1">
         <v>40</v>
       </c>
@@ -1577,7 +1656,10 @@
         <v>105</v>
       </c>
     </row>
-    <row r="19" spans="6:21" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:21" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D19" s="6">
+        <v>3</v>
+      </c>
       <c r="F19" s="1">
         <v>30</v>
       </c>
@@ -1627,7 +1709,10 @@
         <v>110</v>
       </c>
     </row>
-    <row r="20" spans="6:21" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:21" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D20" s="6">
+        <v>2</v>
+      </c>
       <c r="F20" s="1">
         <v>20</v>
       </c>
@@ -1677,7 +1762,10 @@
         <v>115</v>
       </c>
     </row>
-    <row r="21" spans="6:21" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:21" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D21" s="6">
+        <v>1</v>
+      </c>
       <c r="F21" s="1">
         <v>10</v>
       </c>
@@ -1727,7 +1815,10 @@
         <v>120</v>
       </c>
     </row>
-    <row r="22" spans="6:21" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:21" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D22" s="6">
+        <v>0</v>
+      </c>
       <c r="F22" s="2" t="s">
         <v>132</v>
       </c>
@@ -1776,6 +1867,83 @@
       <c r="U22" s="3" t="s">
         <v>65</v>
       </c>
+    </row>
+    <row r="23" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D23" s="5"/>
+    </row>
+    <row r="24" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="M24" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="N24" s="7" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="25" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="7">
+        <v>0</v>
+      </c>
+      <c r="G25" s="7">
+        <v>1</v>
+      </c>
+      <c r="H25" s="7">
+        <v>2</v>
+      </c>
+      <c r="I25" s="7">
+        <v>3</v>
+      </c>
+      <c r="J25" s="7">
+        <v>4</v>
+      </c>
+      <c r="K25" s="7">
+        <v>5</v>
+      </c>
+      <c r="L25" s="7">
+        <v>6</v>
+      </c>
+      <c r="M25" s="7">
+        <v>7</v>
+      </c>
+      <c r="N25" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
